--- a/OnBoard/output/trust/bio/Bio_Trust_32.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_32.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q244"/>
+  <dimension ref="A1:Q246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10245,7 +10245,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F196">
@@ -10255,18 +10255,28 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I196">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L196">
         <v>0</v>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
       </c>
     </row>
     <row r="197">
@@ -10292,7 +10302,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F197">
@@ -10302,10 +10312,10 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I197">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J197" t="inlineStr">
         <is>
@@ -10319,6 +10329,11 @@
       </c>
       <c r="L197">
         <v>0</v>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
       </c>
     </row>
     <row r="198">
@@ -10361,12 +10376,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L198">
@@ -10406,7 +10416,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I199">
         <v>-1</v>
@@ -10458,14 +10468,19 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I200">
         <v>-1</v>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L200">
@@ -10505,14 +10520,19 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I201">
         <v>-1</v>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L201">
@@ -10552,19 +10572,14 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I202">
         <v>-1</v>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L202">
@@ -10604,7 +10619,7 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I203">
         <v>-1</v>
@@ -10651,7 +10666,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I204">
         <v>-1</v>
@@ -10663,7 +10678,7 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L204">
@@ -10703,7 +10718,7 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I205">
         <v>-1</v>
@@ -10750,7 +10765,7 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I206">
         <v>-1</v>
@@ -10802,7 +10817,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I207">
         <v>-1</v>
@@ -10849,14 +10864,19 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I208">
         <v>-1</v>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L208">
@@ -10896,7 +10916,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I209">
         <v>-1</v>
@@ -10943,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I210">
         <v>-1</v>
@@ -10990,7 +11010,7 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I211">
         <v>-1</v>
@@ -11037,19 +11057,14 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I212">
         <v>-1</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L212">
@@ -11089,19 +11104,14 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I213">
         <v>-1</v>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L213">
@@ -11141,14 +11151,19 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I214">
         <v>-1</v>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L214">
@@ -11188,14 +11203,19 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I215">
         <v>-1</v>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L215">
@@ -11242,12 +11262,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L216">
@@ -11287,19 +11302,14 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="I217">
         <v>-1</v>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L217">
@@ -11339,14 +11349,19 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I218">
         <v>-1</v>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L218">
@@ -11386,7 +11401,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I219">
         <v>-1</v>
@@ -11438,19 +11453,14 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I220">
         <v>-1</v>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L220">
@@ -11490,7 +11500,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I221">
         <v>-1</v>
@@ -11542,14 +11552,19 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I222">
         <v>-1</v>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L222">
@@ -11589,7 +11604,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I223">
         <v>-1</v>
@@ -11601,7 +11616,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L223">
@@ -11641,19 +11656,14 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I224">
         <v>-1</v>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L224">
@@ -11693,7 +11703,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I225">
         <v>-1</v>
@@ -11745,7 +11755,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I226">
         <v>-1</v>
@@ -11757,7 +11767,7 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L226">
@@ -11797,7 +11807,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I227">
         <v>-1</v>
@@ -11809,7 +11819,7 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L227">
@@ -11849,14 +11859,19 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I228">
         <v>-1</v>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L228">
@@ -11896,14 +11911,19 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I229">
         <v>-1</v>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L229">
@@ -11943,7 +11963,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I230">
         <v>-1</v>
@@ -11990,19 +12010,14 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I231">
         <v>-1</v>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L231">
@@ -12042,19 +12057,14 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I232">
         <v>-1</v>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L232">
@@ -12106,7 +12116,7 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L233">
@@ -12146,14 +12156,19 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I234">
         <v>-1</v>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L234">
@@ -12193,14 +12208,19 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I235">
         <v>-1</v>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L235">
@@ -12240,7 +12260,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I236">
         <v>-1</v>
@@ -12287,7 +12307,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I237">
         <v>-1</v>
@@ -12334,19 +12354,14 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I238">
         <v>-1</v>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L238">
@@ -12433,14 +12448,19 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I240">
         <v>-1</v>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L240">
@@ -12480,19 +12500,14 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I241">
         <v>-1</v>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L241">
@@ -12539,12 +12554,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L242">
@@ -12584,7 +12594,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I243">
         <v>-1</v>
@@ -12636,7 +12646,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I244">
         <v>-1</v>
@@ -12652,6 +12662,110 @@
         </is>
       </c>
       <c r="L244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="G245">
+        <v>1</v>
+      </c>
+      <c r="H245">
+        <v>24</v>
+      </c>
+      <c r="I245">
+        <v>-1</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="G246">
+        <v>1</v>
+      </c>
+      <c r="H246">
+        <v>19</v>
+      </c>
+      <c r="I246">
+        <v>-1</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L246">
         <v>0</v>
       </c>
     </row>
